--- a/data/income_statement/2digits/size/02_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/02_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>02-Forestry and logging</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>02-Forestry and logging</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>105149.98652</v>
+        <v>110099.28925</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>144412.49155</v>
+        <v>151398.09038</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>178403.60046</v>
+        <v>186172.54239</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>189160.95809</v>
+        <v>197660.89408</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>185986.7645</v>
+        <v>197539.95299</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>207500.17872</v>
+        <v>218648.78482</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>173368.00304</v>
+        <v>183665.84147</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>254391.9833</v>
+        <v>263552.5637299999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>308932.8294700001</v>
+        <v>322626.21251</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>425760.30789</v>
+        <v>441585.1403099999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>430196.45046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>453044.5656900001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>444178.309</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>96381.52184</v>
+        <v>100923.75972</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>140694.36661</v>
+        <v>147151.75674</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>171089.65717</v>
+        <v>178553.73182</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>179555.3048</v>
+        <v>187532.14272</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>178181.06101</v>
+        <v>189525.14982</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>197714.00795</v>
+        <v>208630.19265</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>160533.00539</v>
+        <v>170254.82214</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>225827.72868</v>
+        <v>234892.96876</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>279262.50672</v>
+        <v>292556.1435</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>385499.03914</v>
+        <v>398804.0447800001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>389891.9023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>412146.78749</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>423002.407</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>6279.95634</v>
+        <v>6279.956340000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1564.92437</v>
+        <v>1598.93784</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2011.39175</v>
+        <v>2226.24974</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4948.92745</v>
+        <v>5204.5892</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>1113.99575</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2033.6351</v>
+        <v>2053.6461</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3816.93258</v>
+        <v>3963.755079999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>20476.41251</v>
+        <v>20529.00027</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>6078.25791</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>5063.73902</v>
+        <v>5157.612180000001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>7901.159649999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>8026.609949999999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5403.942</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>2488.50834</v>
+        <v>2895.57319</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2153.20057</v>
+        <v>2647.3958</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>5302.55154</v>
+        <v>5392.560829999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>4656.72584</v>
+        <v>4924.16216</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>6691.70774</v>
+        <v>6900.80742</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>7752.53567</v>
+        <v>7964.946069999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>9018.065070000001</v>
+        <v>9447.26425</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>8087.84211</v>
+        <v>8130.5947</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>23592.06484</v>
+        <v>23991.8111</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>35197.52972999999</v>
+        <v>37623.48334999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>32403.38851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>32871.16825</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>15771.96</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>408.87559</v>
+        <v>634.29512</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>554.5633800000001</v>
+        <v>627.6483800000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>536.9082099999999</v>
+        <v>574.4346999999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>87.96453</v>
+        <v>144.49003</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>163.82657</v>
+        <v>175.50487</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>90.30806</v>
+        <v>90.57968</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>43.12444</v>
+        <v>44.27722</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1001.087</v>
+        <v>1001.75903</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>114.26992</v>
+        <v>115.50297</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>776.72222</v>
+        <v>797.80396</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>271.39943</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>918.211</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>402.0085</v>
+        <v>627.42803</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>229.70135</v>
+        <v>302.78635</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>300.53407</v>
+        <v>335.38556</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>64.90705</v>
+        <v>97.41254999999998</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>162.44258</v>
+        <v>174.01888</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>85.58338000000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>41.36755</v>
+        <v>42.51971</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>164.89183</v>
+        <v>165.56386</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>90.26126000000001</v>
+        <v>91.49431</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>762.09024</v>
+        <v>778.2766800000001</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>261.14233</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>908.314</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4.64797</v>
@@ -1190,19 +1126,19 @@
         <v>284.98108</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>0.001</v>
+        <v>2.676</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>5.37425</v>
+        <v>29.39425</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>1.34899</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>0.45</v>
+        <v>0.72162</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>0.09153</v>
+        <v>0.09215000000000001</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>0</v>
@@ -1211,16 +1147,21 @@
         <v>0</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>12.93271</v>
+        <v>16.98883</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>9.856999999999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2.21912</v>
@@ -1235,7 +1176,7 @@
         <v>17.68323</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>0.035</v>
+        <v>0.137</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>4.27468</v>
@@ -1250,211 +1191,241 @@
         <v>24.00866</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1.69927</v>
+        <v>2.53845</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>10.2571</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>104741.11093</v>
+        <v>109464.99413</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>143857.92817</v>
+        <v>150770.442</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>177866.69225</v>
+        <v>185598.10769</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>189072.99356</v>
+        <v>197516.40405</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>185822.93793</v>
+        <v>197364.44812</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>207409.87066</v>
+        <v>218558.20514</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>173324.8786</v>
+        <v>183621.56425</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>253390.8963</v>
+        <v>262550.8047</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>308818.55955</v>
+        <v>322510.70954</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>424983.5856699999</v>
+        <v>440787.33635</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>429925.05103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>452773.16626</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>443260.098</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>84852.7876</v>
+        <v>88561.85476999999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>117239.04797</v>
+        <v>122231.86555</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>148795.57035</v>
+        <v>154617.79172</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>153838.1292</v>
+        <v>160031.01445</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>141229.06381</v>
+        <v>149309.61068</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>174309.8257</v>
+        <v>181888.22373</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>137210.40935</v>
+        <v>145887.31027</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>206606.475</v>
+        <v>214242.43009</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>249905.80299</v>
+        <v>260776.21308</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>355010.7937</v>
+        <v>367571.2204</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>360789.9132299999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>377391.58514</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>363015.009</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>11950.09977</v>
+        <v>12469.98236</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>19419.7006</v>
+        <v>20820.02733</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>10256.07632</v>
+        <v>11858.66836</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>11459.48785</v>
+        <v>12514.68799</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8135.262140000001</v>
+        <v>10801.97463</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>30125.34915</v>
+        <v>31732.73315</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5497.888660000001</v>
+        <v>6855.08792</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>13421.24059</v>
+        <v>15220.45359</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>17491.26935</v>
+        <v>19005.94552</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>29193.47927</v>
+        <v>31159.37599</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>39009.34529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>41949.46126</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>40200.315</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>40469.61062</v>
+        <v>43498.94828</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>59599.90717</v>
+        <v>63061.87636</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>78463.50249000001</v>
+        <v>82040.97065</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>66584.2472</v>
+        <v>70850.26312999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>60686.36665</v>
+        <v>63780.2294</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>69950.25189</v>
+        <v>72928.55275</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>56800.73439</v>
+        <v>61912.42844</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>90084.67157999999</v>
+        <v>93555.7807</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>87403.43631</v>
+        <v>91875.29052000001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>144955.39808</v>
+        <v>148853.55941</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>143193.08204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>148007.55768</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>101037.65</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>31891.01026</v>
+        <v>32050.85718</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>38115.42815</v>
+        <v>38245.94981</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>59844.21635</v>
+        <v>60470.87751999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>75653.29407999999</v>
+        <v>76524.96325999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>72310.49584999999</v>
+        <v>74624.76747999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>73857.38818000001</v>
+        <v>76801.98338999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>74450.48083</v>
+        <v>76353.84331</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>99433.15367</v>
+        <v>101693.88898</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>144236.98779</v>
+        <v>149118.56692</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>179170.8831</v>
+        <v>185758.49367</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>178059.13038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>186866.48034</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>221634.795</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>542.0669499999999</v>
@@ -1463,310 +1434,350 @@
         <v>104.01205</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>231.77519</v>
+        <v>247.27519</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>141.10007</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>96.93917</v>
+        <v>102.63917</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>376.83648</v>
+        <v>424.95444</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>461.30547</v>
+        <v>765.9506</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3667.40916</v>
+        <v>3772.30682</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>774.10954</v>
+        <v>776.41012</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1691.03325</v>
+        <v>1799.79133</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>528.3555200000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>568.08586</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>142.249</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>19888.32333</v>
+        <v>20903.13936</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>26618.8802</v>
+        <v>28538.57645</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>29071.1219</v>
+        <v>30980.31597</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>35234.86436</v>
+        <v>37485.3896</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>44593.87412</v>
+        <v>48054.83744</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>33100.04496</v>
+        <v>36669.98141</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>36114.46925</v>
+        <v>37734.25397999999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>46784.42129999999</v>
+        <v>48308.37461</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>58912.75656</v>
+        <v>61734.49646</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>69972.79197000001</v>
+        <v>73216.11595000001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>69135.1378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>75381.58112</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>80245.08900000001</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>21053.65163</v>
+        <v>22675.49113</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>27657.45504</v>
+        <v>30848.48031</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>26956.61127</v>
+        <v>30484.39995</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>31542.80315</v>
+        <v>35079.77984</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>39536.39563</v>
+        <v>42792.34045</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>28107.65705</v>
+        <v>32442.93535</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>33679.47453</v>
+        <v>36801.69172</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>44163.0959</v>
+        <v>47245.4667</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>55483.4697</v>
+        <v>59412.57457</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>66414.30104000001</v>
+        <v>69414.49271999999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>63723.83452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>70176.64428000001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>70277.38800000001</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>770.71834</v>
+        <v>865.21966</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>443.295</v>
+        <v>710.3802300000001</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>229.15463</v>
+        <v>532.4343699999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>200.43517</v>
+        <v>433.20803</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>784.7938</v>
+        <v>1020.69964</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>51.66837</v>
+        <v>236.45961</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>169.17552</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>16.27762</v>
+        <v>195.28142</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>27.82277</v>
+        <v>511.56366</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>119.11426</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>54.27261</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2.719</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2637.40787</v>
+        <v>2671.84172</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>2317.12142</v>
+        <v>2691.16422</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2904.41817</v>
+        <v>3004.54561</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>4018.55005</v>
+        <v>4057.13188</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>4047.76287</v>
+        <v>4376.03314</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3322.8636</v>
+        <v>3448.05089</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2736.97205</v>
+        <v>2884.97114</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>7721.58287</v>
+        <v>7743.72433</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>7190.73772</v>
+        <v>7369.809560000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>6698.642150000001</v>
+        <v>7613.35402</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>10404.87144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>12531.21221</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>9624.032999999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>17645.52542</v>
+        <v>19138.42975</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>24897.03862</v>
+        <v>27446.93586</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>23823.03847</v>
+        <v>26947.41997</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>27323.81793</v>
+        <v>30589.43993</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>34703.83896</v>
+        <v>37395.60767</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>24733.12508</v>
+        <v>28758.42485</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>30773.32696</v>
+        <v>33747.54506</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>36425.23540999999</v>
+        <v>39306.46095</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>48264.90920999999</v>
+        <v>51531.20135</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>59596.54463</v>
+        <v>61682.02444</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>53268.96308000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>57591.15946</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>60650.636</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-1165.3283</v>
+        <v>-1772.35177</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-1038.57484</v>
+        <v>-2309.90386</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2114.51063</v>
+        <v>495.9160199999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>3692.06121</v>
+        <v>2405.60976</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>5057.47849</v>
+        <v>5262.496990000001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4992.38791</v>
+        <v>4227.046060000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2434.99472</v>
+        <v>932.5622600000002</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2621.3254</v>
+        <v>1062.90791</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3429.28686</v>
+        <v>2321.921890000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3558.490929999999</v>
+        <v>3801.62323</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>5411.30328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5204.93684</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9967.700999999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2816.44071</v>
+        <v>3142.82607</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2518.33719</v>
+        <v>2829.25482</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1823.31945</v>
+        <v>2038.76031</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>952.8853800000001</v>
+        <v>1038.87973</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>977.8536899999999</v>
+        <v>1055.27479</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1316.30867</v>
+        <v>1416.40907</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1448.02344</v>
+        <v>1684.62173</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1199.63973</v>
+        <v>1645.52382</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>2264.53096</v>
+        <v>3313.70955</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2435.94743</v>
+        <v>3294.13256</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2850.82737</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3132.85289</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>5721.253</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1778,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>19.44056</v>
+        <v>19.44057</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>7.73981</v>
@@ -1790,7 +1801,7 @@
         <v>167.68975</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0.83468</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,7 +1833,7 @@
         <v>6.76704</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>5.81065</v>
+        <v>6.11065</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>59.01559</v>
@@ -1838,52 +1854,62 @@
         <v>270.31463</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>128.63715</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>141.483</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>103.93508</v>
+        <v>297.65312</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>63.28964</v>
+        <v>268.23803</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>60.19792</v>
+        <v>179.48324</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>174.04438</v>
+        <v>238.80433</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>58.69325</v>
+        <v>78.85574</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>72.77485</v>
+        <v>104.97441</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>134.82283</v>
+        <v>232.019</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>120.55011</v>
+        <v>440.6249</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>134.59936</v>
+        <v>1011.56529</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>294.83076</v>
+        <v>302.02861</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>239.38418</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>253.894</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3533.355</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>201.62726</v>
@@ -1901,13 +1927,13 @@
         <v>208.04565</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>282.64153</v>
+        <v>283.12918</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>260.03579</v>
+        <v>261.84793</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>207.67439</v>
+        <v>220.84666</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>414.42673</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>461.39547</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>209.081</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1.19807</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>0.42872</v>
+        <v>0.6109600000000001</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>0.24631</v>
@@ -1973,73 +2009,83 @@
         <v>13.79559</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>0.47468</v>
+        <v>3.37865</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>0.04319</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>0</v>
+        <v>15.08979</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2.14649</v>
+        <v>23.32496</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>7.89511</v>
+        <v>22.70515</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>0.30347</v>
+        <v>2.61866</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>27.75609</v>
+        <v>29.53116</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>20.80646</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>17.111</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>18.27913</v>
+        <v>143.59128</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>12.64299</v>
+        <v>64.3578</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>34.68977</v>
+        <v>118.3614</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>31.60205</v>
+        <v>47.64012</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>35.6174</v>
+        <v>39.75734000000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>21.09987</v>
+        <v>29.0142</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>18.728</v>
+        <v>23.87241</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>16.81509</v>
+        <v>20.71216</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>5.46779</v>
+        <v>42.45804</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>75.55217999999999</v>
+        <v>526.9178499999999</v>
       </c>
       <c r="M32" s="48" t="n">
         <v>196.35765</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>385.627</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1.16656</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>57.865</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2490.97245</v>
+        <v>2498.14538</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2297.43076</v>
+        <v>2351.68519</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1555.41401</v>
+        <v>1567.89792</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>558.7570499999999</v>
+        <v>560.7494</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>608.6988</v>
+        <v>661.81747</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>842.1046000000001</v>
+        <v>886.5136700000002</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>766.83755</v>
+        <v>878.10465</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>729.7132800000001</v>
+        <v>808.6432</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1236.2338</v>
+        <v>1369.14102</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1517.51095</v>
+        <v>1915.35749</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1951.53351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2069.6056</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1376.385</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>184.84465</v>
+        <v>1015.42811</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>229.66468</v>
+        <v>281.95692</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>366.20198</v>
+        <v>398.81035</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>207.89781</v>
+        <v>281.03556</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>193.42117</v>
+        <v>221.02744</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>599.595</v>
+        <v>600.04274</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>303.71858</v>
+        <v>309.99691</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>284.97173</v>
+        <v>479.1383</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>349.42036</v>
+        <v>389.47161</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>613.40539</v>
+        <v>1390.97527</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>488.10488</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>489.87199</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2867.561</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>41.80817</v>
@@ -2213,16 +2279,16 @@
         <v>6.75536</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>67.30304000000001</v>
+        <v>67.75071000000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>39.54058</v>
+        <v>44.78873</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>34.03941</v>
+        <v>35.26143</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>20.06906</v>
+        <v>41.69105</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>98.95742999999999</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>257.88094</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>13.835</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>48.903</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>71.68174999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>24.288</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,26 +2384,31 @@
       <c r="M39" s="48" t="n">
         <v>16.83108</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.772</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>17.82887</v>
+        <v>104.17368</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>42.78890000000001</v>
+        <v>87.86221</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>23.3061</v>
+        <v>48.69815</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>16.64146</v>
+        <v>43.03442</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>0.43181</v>
+        <v>9.309199999999999</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>21.80006</v>
@@ -2336,22 +2417,27 @@
         <v>13.02275</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4.08427</v>
+        <v>30.47835</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1.22938</v>
+        <v>3.59012</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>59.05872</v>
+        <v>836.10721</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>21.98579</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>22.72159</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2811.678</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.75382</v>
@@ -2366,7 +2452,7 @@
         <v>27.91955</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>18.43634</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>18.0989</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,260 +2516,295 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>75.55079000000001</v>
+        <v>819.78944</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>110.74571</v>
+        <v>117.96464</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>251.4638</v>
+        <v>258.68012</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>127.80547</v>
+        <v>174.55026</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>139.01505</v>
+        <v>139.30759</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>484.33208</v>
+        <v>484.33215</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>172.04537</v>
+        <v>173.07555</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>221.06309</v>
+        <v>387.61356</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>186.85442</v>
+        <v>202.92294</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>403.42184</v>
+        <v>403.94323</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>119.72532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>120.75663</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>16.988</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>460.08546</v>
+        <v>753.8075799999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>648.45087</v>
+        <v>892.70213</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>372.76019</v>
+        <v>735.2258499999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>562.1509199999999</v>
+        <v>1427.3656</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>438.44166</v>
+        <v>1097.62189</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>568.3914199999999</v>
+        <v>714.3594600000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>418.53323</v>
+        <v>656.4305800000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>455.68265</v>
+        <v>607.5572099999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>663.28976</v>
+        <v>841.1599400000002</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>796.8901599999999</v>
+        <v>1237.3064</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1086.16117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1533.19668</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1097.79</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>444.47789</v>
+        <v>727.6298999999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>610.29202</v>
+        <v>854.54328</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>353.14849</v>
+        <v>700.3673899999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>513.74969</v>
+        <v>1086.3971</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>420.6883</v>
+        <v>1021.19171</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>501.43073</v>
+        <v>643.37923</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>395.9459200000001</v>
+        <v>633.8432700000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>440.0416</v>
+        <v>553.10023</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>558.20676</v>
+        <v>736.0769399999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>791.31475</v>
+        <v>1214.83571</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1085.90909</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1389.38856</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>954.871</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>15.60757</v>
+        <v>26.17768</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>38.15885</v>
+        <v>38.15884999999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>19.6117</v>
+        <v>34.85846</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>48.40123</v>
+        <v>340.9685</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>17.75336</v>
+        <v>76.43017999999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>66.96069</v>
+        <v>70.98022999999999</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>22.58731</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>15.64105</v>
+        <v>54.45697999999999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>105.083</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>5.57541</v>
+        <v>22.47069</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>0.25208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>143.80812</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>142.919</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1006.1823</v>
+        <v>-398.76139</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>601.6468000000001</v>
+        <v>-655.3080900000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>3198.86791</v>
+        <v>1400.64013</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3874.89786</v>
+        <v>1736.08833</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>5403.46935</v>
+        <v>4999.122449999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>5140.710160000001</v>
+        <v>4329.05293</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3160.766349999999</v>
+        <v>1650.7565</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>3080.31075</v>
+        <v>1621.73622</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>4681.1077</v>
+        <v>4404.999890000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4584.14281</v>
+        <v>4467.47412</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>6687.864600000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6314.72106</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>11723.603</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>250.89403</v>
+        <v>325.46628</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>593.86025</v>
+        <v>783.0239499999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1391.48058</v>
+        <v>1480.5792</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>657.6910300000001</v>
+        <v>814.5389200000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>501.6233100000001</v>
+        <v>612.9930800000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>751.93922</v>
+        <v>1015.50677</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>473.74501</v>
+        <v>991.9720800000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>937.05193</v>
+        <v>1267.07666</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1122.66516</v>
+        <v>1222.08328</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2285.55025</v>
+        <v>2379.05712</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1584.13718</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1693.98948</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>7430.701</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>10.97932</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>0.32941</v>
+        <v>136.10107</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>155.93451</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>19.8737</v>
+        <v>62.00871000000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>0</v>
+        <v>8.986690000000001</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>42.78323</v>
@@ -2690,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>0.044</v>
+        <v>14.81264</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>1.63289</v>
@@ -2698,98 +2824,113 @@
       <c r="M49" s="48" t="n">
         <v>16.75461</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>3.735</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>239.91471</v>
+        <v>314.48696</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>593.53084</v>
+        <v>646.92288</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1235.54607</v>
+        <v>1324.64469</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>637.8173300000001</v>
+        <v>752.53021</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>501.6233100000001</v>
+        <v>604.00639</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>709.15599</v>
+        <v>972.7235400000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>413.86889</v>
+        <v>932.09596</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>937.05193</v>
+        <v>1267.07666</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1122.62116</v>
+        <v>1207.27064</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2283.91736</v>
+        <v>2377.42423</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1567.38257</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1677.23487</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>7426.966</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>821.3405499999999</v>
+        <v>914.96525</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>674.2231899999999</v>
+        <v>772.63183</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2436.7887</v>
+        <v>3186.61435</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>773.1533899999999</v>
+        <v>859.47663</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>659.22972</v>
+        <v>709.12344</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>978.78666</v>
+        <v>1514.2064</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>419.69552</v>
+        <v>681.04075</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1757.00291</v>
+        <v>1813.39325</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1156.09365</v>
+        <v>1279.17476</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2405.77767</v>
+        <v>2472.6011</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>896.4655600000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1007.04137</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2021.738</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>12.22802</v>
+        <v>22.24079</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>1.2</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>18.16094</v>
+        <v>160.93011</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>0</v>
@@ -2815,26 +2956,31 @@
       <c r="M52" s="48" t="n">
         <v>1.92902</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>240.85305</v>
+        <v>253.95072</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>29.60025</v>
+        <v>31.8736</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>95.54012000000002</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>48.24529000000001</v>
+        <v>48.24529</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>57.0729</v>
+        <v>62.55375</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>41.55297</v>
@@ -2854,164 +3000,187 @@
       <c r="M53" s="48" t="n">
         <v>77.19208</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>183.272</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>568.2594799999999</v>
+        <v>638.7737399999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>643.42294</v>
+        <v>739.5582300000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2323.08764</v>
+        <v>2930.144119999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>724.9081</v>
+        <v>811.2313399999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>602.1568199999999</v>
+        <v>646.5696899999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>934.0492399999999</v>
+        <v>1469.46898</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>294.98048</v>
+        <v>556.32571</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1739.52771</v>
+        <v>1795.91805</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1102.74971</v>
+        <v>1225.83082</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2233.31747</v>
+        <v>2300.1409</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>817.3444599999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>927.9202700000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1838.466</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>435.73578</v>
+        <v>-988.2603600000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>521.2838599999999</v>
+        <v>-644.91597</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>2153.55979</v>
+        <v>-305.3950199999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3759.4355</v>
+        <v>1691.15062</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>5245.862939999999</v>
+        <v>4902.99209</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4913.86272</v>
+        <v>3830.3533</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3214.81584</v>
+        <v>1961.68783</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2260.35977</v>
+        <v>1075.41963</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>4647.67921</v>
+        <v>4347.90841</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>4463.915390000001</v>
+        <v>4373.93014</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>7375.536220000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>7001.669170000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>17132.566</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>420.53218</v>
+        <v>442.23124</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>345.47727</v>
+        <v>382.03429</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>430.27376</v>
+        <v>463.59532</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>572.17652</v>
+        <v>599.5499299999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>800.6204700000001</v>
+        <v>883.5069900000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>818.8376500000001</v>
+        <v>886.11172</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>617.36252</v>
+        <v>713.6975</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>613.22195</v>
+        <v>661.65586</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>782.17846</v>
+        <v>927.8534600000002</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1458.55865</v>
+        <v>1464.36289</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1408.84681</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1469.19993</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2858.59</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>15.20359999999998</v>
+        <v>-1430.4916</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>175.80659</v>
+        <v>-1026.95026</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1723.28603</v>
+        <v>-768.9903400000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>3187.25898</v>
+        <v>1091.60069</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>4445.24247</v>
+        <v>4019.485099999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>4095.02507</v>
+        <v>2944.24158</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2597.45332</v>
+        <v>1247.99033</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1647.13782</v>
+        <v>413.76377</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3865.50075</v>
+        <v>3420.05495</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3005.35674</v>
+        <v>2909.56725</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>5966.68941</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>5532.469239999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>14273.976</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>592</v>
+        <v>629</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>578</v>
+        <v>621</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>586</v>
+        <v>632</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>738</v>
+        <v>781</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>801</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>